--- a/OWASP_JUICE_SHOP_SEARCH_FEATURES_CYPRESS_TESTING_FINAL (1).xlsx
+++ b/OWASP_JUICE_SHOP_SEARCH_FEATURES_CYPRESS_TESTING_FINAL (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="17580"/>
+    <workbookView windowHeight="17580"/>
   </bookViews>
   <sheets>
     <sheet name="Search Test Cases" sheetId="1" r:id="rId1"/>
@@ -1665,8 +1665,8 @@
   <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>

--- a/OWASP_JUICE_SHOP_SEARCH_FEATURES_CYPRESS_TESTING_FINAL (1).xlsx
+++ b/OWASP_JUICE_SHOP_SEARCH_FEATURES_CYPRESS_TESTING_FINAL (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17580"/>
+    <workbookView windowHeight="18285"/>
   </bookViews>
   <sheets>
     <sheet name="Search Test Cases" sheetId="1" r:id="rId1"/>
@@ -1665,8 +1665,8 @@
   <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>

--- a/OWASP_JUICE_SHOP_SEARCH_FEATURES_CYPRESS_TESTING_FINAL (1).xlsx
+++ b/OWASP_JUICE_SHOP_SEARCH_FEATURES_CYPRESS_TESTING_FINAL (1).xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t>TC10</t>
@@ -1248,7 +1251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1298,6 +1301,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1376,6 +1382,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1663,13 +1676,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="18.6095238095238" style="2" customWidth="1"/>
     <col min="2" max="2" width="52.8" style="2" customWidth="1"/>
@@ -1870,7 +1883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="100" customHeight="1" spans="1:6">
+    <row r="11" ht="100" customHeight="1" spans="1:7">
       <c r="A11" s="15" t="s">
         <v>47</v>
       </c>
@@ -1889,22 +1902,25 @@
       <c r="F11" s="17" t="s">
         <v>52</v>
       </c>
+      <c r="G11" s="18" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" ht="100" customHeight="1" spans="1:6">
       <c r="A12" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="10">
         <v>2020</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>12</v>
@@ -1912,19 +1928,19 @@
     </row>
     <row r="13" ht="100" customHeight="1" spans="1:6">
       <c r="A13" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>12</v>
@@ -1932,19 +1948,19 @@
     </row>
     <row r="14" ht="100" customHeight="1" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>12</v>
@@ -1952,19 +1968,19 @@
     </row>
     <row r="15" ht="100" customHeight="1" spans="1:6">
       <c r="A15" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>12</v>
@@ -1972,19 +1988,19 @@
     </row>
     <row r="16" ht="100" customHeight="1" spans="1:6">
       <c r="A16" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>12</v>
@@ -1992,19 +2008,19 @@
     </row>
     <row r="17" ht="100" customHeight="1" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>12</v>
@@ -2012,19 +2028,19 @@
     </row>
     <row r="18" ht="100" customHeight="1" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>12</v>
@@ -2032,140 +2048,143 @@
     </row>
     <row r="19" ht="100" customHeight="1" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="100" customHeight="1" spans="1:6">
-      <c r="A20" s="18" t="s">
-        <v>89</v>
+      <c r="A20" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="100" customHeight="1" spans="1:6">
-      <c r="A21" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="D21" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="E21" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" ht="100" customHeight="1" spans="1:6">
-      <c r="A22" s="19" t="s">
-        <v>99</v>
+      <c r="A22" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="D22" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="E22" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" ht="100" customHeight="1" spans="1:6">
-      <c r="A23" s="19" t="s">
-        <v>104</v>
+      <c r="A23" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21" t="s">
+      <c r="C23" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" ht="100" customHeight="1" spans="1:6">
-      <c r="A24" s="19" t="s">
-        <v>108</v>
+      <c r="A24" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="D24" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="E24" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="136" customHeight="1" spans="1:6">
-      <c r="A25" s="19" t="s">
-        <v>113</v>
+    <row r="25" ht="136" customHeight="1" spans="1:7">
+      <c r="A25" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="C25" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="D25" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="E25" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="24" t="s">
         <v>52</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/OWASP_JUICE_SHOP_SEARCH_FEATURES_CYPRESS_TESTING_FINAL (1).xlsx
+++ b/OWASP_JUICE_SHOP_SEARCH_FEATURES_CYPRESS_TESTING_FINAL (1).xlsx
@@ -360,8 +360,7 @@
     <t>Kiểm thử tìm kiếm có dấu cách ở hai đầu</t>
   </si>
   <si>
-    <t>1. Nhấn vào icon tìm kiếm
-2. Nhập ' apple ' vào ô tìm kiếm và nhấn Enter</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve"> apple </t>
@@ -607,7 +606,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,12 +622,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,7 +1120,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1151,16 +1144,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1169,85 +1162,85 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1290,16 +1283,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1320,7 +1313,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1678,7 +1671,7 @@
   <sheetPr/>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/OWASP_JUICE_SHOP_SEARCH_FEATURES_CYPRESS_TESTING_FINAL (1).xlsx
+++ b/OWASP_JUICE_SHOP_SEARCH_FEATURES_CYPRESS_TESTING_FINAL (1).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -47,10 +47,13 @@
     <t>Trạng thái</t>
   </si>
   <si>
+    <t>Mức độ lỗi</t>
+  </si>
+  <si>
     <t>Kiểm thử chức năng tìm kiếm</t>
   </si>
   <si>
-    <t>TC01</t>
+    <t>TK_01</t>
   </si>
   <si>
     <t>Kiểm thử tìm kiếm với từ khóa hợp lệ</t>
@@ -69,7 +72,7 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>TC02</t>
+    <t>TK_02</t>
   </si>
   <si>
     <t>Kiểm thử tìm kiếm với chữ in hoa</t>
@@ -85,7 +88,7 @@
     <t>Hiển thị kết quả như 'apple'</t>
   </si>
   <si>
-    <t>TC03</t>
+    <t>TK_03</t>
   </si>
   <si>
     <t>Kiểm thử tìm kiếm với từ khóa một phần</t>
@@ -101,23 +104,7 @@
     <t>Hiển thị tất cả mục có chứa 'app'</t>
   </si>
   <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>Kiểm thử tìm kiếm với từ khóa chính xác</t>
-  </si>
-  <si>
-    <t>1. Nhấn vào icon tìm kiếm
-2. Nhập 'apple juice' vào ô tìm kiếm và nhấn Enter</t>
-  </si>
-  <si>
-    <t>apple juice</t>
-  </si>
-  <si>
-    <t>Chỉ hiển thị sản phẩm đó</t>
-  </si>
-  <si>
-    <t>TC05</t>
+    <t>TK_04</t>
   </si>
   <si>
     <t>Kiểm thử tìm kiếm không ra kết quả</t>
@@ -133,7 +120,7 @@
     <t>Không hiển thị mục nào</t>
   </si>
   <si>
-    <t>TC06</t>
+    <t>TK_05</t>
   </si>
   <si>
     <t>Kiểm thử tìm kiếm với ký tự đặc biệt</t>
@@ -149,7 +136,7 @@
     <t>Không hiển thị mục nào và không bị lỗi</t>
   </si>
   <si>
-    <t>TC07</t>
+    <t>TK_06</t>
   </si>
   <si>
     <t>Kiểm thử tìm kiếm có dấu cách đầu dòng</t>
@@ -165,7 +152,7 @@
     <t>Vẫn hiển thị đúng kết quả</t>
   </si>
   <si>
-    <t>TC08</t>
+    <t>TK_07</t>
   </si>
   <si>
     <t>Kiểm thử tìm kiếm có dấu cách cuối dòng</t>
@@ -178,7 +165,7 @@
     <t xml:space="preserve">apple </t>
   </si>
   <si>
-    <t>TC9</t>
+    <t>TK_08</t>
   </si>
   <si>
     <t>Kiểm thử tìm kiếm chỉ với dấu cách</t>
@@ -197,10 +184,10 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>TC10</t>
+    <t>L</t>
+  </si>
+  <si>
+    <t>TK_09</t>
   </si>
   <si>
     <t>Kiểm thử tìm kiếm với số</t>
@@ -213,7 +200,7 @@
     <t>Hiển thị mục chứa '2020'</t>
   </si>
   <si>
-    <t>TC11</t>
+    <t>TK_10</t>
   </si>
   <si>
     <t>Kiểm thử mất focus ô tìm kiếm</t>
@@ -227,7 +214,7 @@
     <t>Kết quả vẫn giữ nguyên</t>
   </si>
   <si>
-    <t>TC12</t>
+    <t>TK_11</t>
   </si>
   <si>
     <t>Kiểm thử tìm kiếm với chuỗi rất dài</t>
@@ -243,7 +230,7 @@
     <t>Không bị crash, UI hoạt động</t>
   </si>
   <si>
-    <t>TC13</t>
+    <t>TK_12</t>
   </si>
   <si>
     <t>Kiểm thử tìm kiếm với chữ hoa và thường xen kẽ</t>
@@ -259,7 +246,7 @@
     <t>Tìm đúng kết quả (không phân biệt hoa thường)</t>
   </si>
   <si>
-    <t>TC14</t>
+    <t>TK_13</t>
   </si>
   <si>
     <t>Kiểm thử tìm kiếm khi đang cuộn trang</t>
@@ -274,7 +261,7 @@
     <t>Giao diện lọc đúng</t>
   </si>
   <si>
-    <t>TC15</t>
+    <t>TK_14</t>
   </si>
   <si>
     <t>Kiểm thử tìm kiếm với emoji</t>
@@ -290,7 +277,7 @@
     <t>Hiển thị đúng hoặc không nhưng không lỗi</t>
   </si>
   <si>
-    <t>TC16</t>
+    <t>TK_15</t>
   </si>
   <si>
     <t>Kiểm thử hiện ô tìm kiếm khi nhấn icon kính lúp</t>
@@ -306,7 +293,7 @@
     <t>Ô input tìm kiếm xuất hiện</t>
   </si>
   <si>
-    <t>TC17</t>
+    <t>TK_16</t>
   </si>
   <si>
     <t>Kiểm thử ẩn ô tìm kiếm khi nhấn nút X</t>
@@ -319,7 +306,7 @@
     <t>Ô tìm kiếm biến mất</t>
   </si>
   <si>
-    <t>TC18</t>
+    <t>TK_17</t>
   </si>
   <si>
     <t>Kiểm thử tìm kiếm với nội dung chỉ xuất hiện trong mô tả sản phẩm</t>
@@ -336,7 +323,7 @@
     <t>Hiển thị sản phẩm Best Juice Shop Salesman Artwork</t>
   </si>
   <si>
-    <t>TC19</t>
+    <t>TK_18</t>
   </si>
   <si>
     <t>Kiểm thử tìm kiếm từ khóa có trong tiêu đề và nội dung</t>
@@ -354,7 +341,7 @@
     <t>Hiển thị sản phẩm Facemask và mô tả chi tiết</t>
   </si>
   <si>
-    <t>TC20</t>
+    <t>TK_19</t>
   </si>
   <si>
     <t>Kiểm thử tìm kiếm có dấu cách ở hai đầu</t>
@@ -369,22 +356,7 @@
     <t>Thấy sản phẩm</t>
   </si>
   <si>
-    <t>TC21</t>
-  </si>
-  <si>
-    <t>Kiểm thử tìm kiếm rồi xoá hết từ khoá và nhấn enter</t>
-  </si>
-  <si>
-    <t>1. Nhấn vào icon tìm kiếm
-2. Nhập 'apple' vào ô tìm kiếm và nhấn Enter
-3. Xóa hết từ khóa ở ô tìm kiếm
-4. Nhấn enter</t>
-  </si>
-  <si>
-    <t>Hiện thị tất cả sản phẩm</t>
-  </si>
-  <si>
-    <t>TC22</t>
+    <t>TK_20</t>
   </si>
   <si>
     <t>Kiểm thử tìm kiếm với từ khóa có nhiều dấu cách thừa ở đầu và cuối</t>
@@ -400,7 +372,7 @@
     <t>Hiện thị tất cả sản phẩm Apple Juice</t>
   </si>
   <si>
-    <t>TC23</t>
+    <t>TK_21</t>
   </si>
   <si>
     <t>Kiểm thử ô tìm kiếm ẩn và rỗng sau khi đăng nhập ở tài khoản khác</t>
@@ -416,6 +388,9 @@
   </si>
   <si>
     <t>Sau khi đăng nhập thì ô tìm kiếm phải ẩn và rỗng</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -824,7 +799,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -949,21 +924,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1120,7 +1080,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1132,34 +1092,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1244,7 +1204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1277,43 +1237,28 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1669,10 +1614,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -1683,10 +1628,11 @@
     <col min="4" max="4" width="44.7142857142857" style="2" customWidth="1"/>
     <col min="5" max="5" width="49" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="16.7904761904762" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="100" customHeight="1" spans="1:6">
+    <row r="1" ht="100" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1705,10 +1651,13 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="100" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1718,185 +1667,185 @@
     </row>
     <row r="3" ht="100" customHeight="1" spans="1:6">
       <c r="A3" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="100" customHeight="1" spans="1:6">
       <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" ht="100" customHeight="1" spans="1:6">
       <c r="A5" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="100" customHeight="1" spans="1:6">
-      <c r="A6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="E6" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" ht="100" customHeight="1" spans="1:6">
       <c r="A7" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="100" customHeight="1" spans="1:6">
       <c r="A8" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="100" customHeight="1" spans="1:6">
       <c r="A9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="F9" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" ht="100" customHeight="1" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="100" customHeight="1" spans="1:7">
       <c r="A10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="100" customHeight="1" spans="1:7">
-      <c r="A11" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="F10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="G10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="16" t="s">
+    </row>
+    <row r="11" ht="100" customHeight="1" spans="1:6">
+      <c r="A11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="C11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="D11" s="10">
+        <v>2020</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>53</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="100" customHeight="1" spans="1:6">
@@ -1909,14 +1858,14 @@
       <c r="C12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="10">
-        <v>2020</v>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" ht="100" customHeight="1" spans="1:6">
@@ -1930,53 +1879,53 @@
         <v>60</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" ht="100" customHeight="1" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" ht="100" customHeight="1" spans="1:6">
       <c r="A15" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" ht="100" customHeight="1" spans="1:6">
@@ -1990,194 +1939,156 @@
         <v>74</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" ht="100" customHeight="1" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" ht="100" customHeight="1" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>85</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" ht="100" customHeight="1" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="100" customHeight="1" spans="1:6">
       <c r="A19" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="15" t="s">
         <v>89</v>
       </c>
+      <c r="E19" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="F19" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="100" customHeight="1" spans="1:6">
-      <c r="A20" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="100" customHeight="1" spans="1:6">
-      <c r="A21" s="20" t="s">
+      <c r="E20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="F20" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" ht="100" customHeight="1" spans="1:6">
+      <c r="A21" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="C21" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="D21" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>12</v>
+      <c r="E21" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="100" customHeight="1" spans="1:6">
-      <c r="A22" s="20" t="s">
-        <v>100</v>
+      <c r="A22" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="D22" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" ht="100" customHeight="1" spans="1:6">
-      <c r="A23" s="20" t="s">
+      <c r="E22" s="17" t="s">
         <v>105</v>
       </c>
+      <c r="F22" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" ht="136" customHeight="1" spans="1:7">
+      <c r="A23" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="B23" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22" t="s">
+      <c r="C23" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" ht="100" customHeight="1" spans="1:6">
-      <c r="A24" s="20" t="s">
+      <c r="D23" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="E23" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="F23" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" ht="136" customHeight="1" spans="1:7">
-      <c r="A25" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/OWASP_JUICE_SHOP_SEARCH_FEATURES_CYPRESS_TESTING_FINAL (1).xlsx
+++ b/OWASP_JUICE_SHOP_SEARCH_FEATURES_CYPRESS_TESTING_FINAL (1).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Chỉ hiển thị các mục chứa 'apple'</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>PASS</t>
   </si>
   <si>
     <t>TK_02</t>
@@ -181,10 +181,13 @@
     <t>Không tìm kiếm với dấu cách</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>FAIL</t>
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>Nếu dấu cách chỉ gây ra kết quả tìm kiếm không mong muốn (ví dụ: trả về danh sách rỗng) nhưng không ảnh hưởng đến chức năng chính của hệ thống.</t>
   </si>
   <si>
     <t>TK_09</t>
@@ -391,6 +394,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Nếu ô tìm kiếm vẫn hiển thị sau khi đăng nhập nhưng không gây rủi ro bảo mật, chỉ vi phạm thiết kế.</t>
   </si>
 </sst>
 </file>
@@ -403,7 +409,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +440,11 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -596,6 +607,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -608,7 +625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,12 +793,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -799,7 +810,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -817,7 +828,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -832,7 +843,20 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -847,13 +871,70 @@
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
@@ -864,26 +945,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -917,9 +978,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -933,21 +992,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -1074,55 +1118,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1137,74 +1178,77 @@
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1219,47 +1263,61 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1614,22 +1672,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.6095238095238" style="2" customWidth="1"/>
     <col min="2" max="2" width="52.8" style="2" customWidth="1"/>
     <col min="3" max="3" width="115" style="2" customWidth="1"/>
     <col min="4" max="4" width="44.7142857142857" style="2" customWidth="1"/>
     <col min="5" max="5" width="49" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.7142857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.8666666666667" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.7904761904762" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="25.0285714285714" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="100" customHeight="1" spans="1:7">
@@ -1651,449 +1710,475 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="100" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="100" customHeight="1" spans="1:7">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-    </row>
-    <row r="3" ht="100" customHeight="1" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" ht="100" customHeight="1" spans="1:7">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" ht="100" customHeight="1" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" ht="100" customHeight="1" spans="1:7">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" ht="100" customHeight="1" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" ht="100" customHeight="1" spans="1:7">
+      <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" ht="100" customHeight="1" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" ht="100" customHeight="1" spans="1:7">
+      <c r="A6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" ht="100" customHeight="1" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" ht="100" customHeight="1" spans="1:7">
+      <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" ht="100" customHeight="1" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" ht="100" customHeight="1" spans="1:7">
+      <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" ht="100" customHeight="1" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" ht="100" customHeight="1" spans="1:7">
+      <c r="A9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" ht="100" customHeight="1" spans="1:7">
-      <c r="A10" s="9" t="s">
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" ht="161" customHeight="1" spans="1:8">
+      <c r="A10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" ht="100" customHeight="1" spans="1:6">
-      <c r="A11" s="9" t="s">
+      <c r="H10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="10" t="s">
+    </row>
+    <row r="11" ht="100" customHeight="1" spans="1:7">
+      <c r="A11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="10">
+      <c r="C11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="15">
         <v>2020</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" ht="100" customHeight="1" spans="1:6">
-      <c r="A12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" ht="100" customHeight="1" spans="1:7">
+      <c r="A12" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" ht="100" customHeight="1" spans="1:6">
-      <c r="A13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" ht="100" customHeight="1" spans="1:7">
+      <c r="A13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" ht="100" customHeight="1" spans="1:6">
-      <c r="A14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" ht="100" customHeight="1" spans="1:7">
+      <c r="A14" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" ht="100" customHeight="1" spans="1:6">
-      <c r="A15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" ht="100" customHeight="1" spans="1:7">
+      <c r="A15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" ht="100" customHeight="1" spans="1:6">
-      <c r="A16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" ht="100" customHeight="1" spans="1:7">
+      <c r="A16" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="E16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" ht="100" customHeight="1" spans="1:6">
-      <c r="A17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" ht="100" customHeight="1" spans="1:7">
+      <c r="A17" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="E17" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" ht="100" customHeight="1" spans="1:6">
-      <c r="A18" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" ht="100" customHeight="1" spans="1:7">
+      <c r="A18" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="C18" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="D18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="100" customHeight="1" spans="1:6">
-      <c r="A19" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="100" customHeight="1" spans="1:7">
+      <c r="A19" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="E19" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="100" customHeight="1" spans="1:6">
-      <c r="A20" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="16" t="s">
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="100" customHeight="1" spans="1:7">
+      <c r="A20" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" ht="100" customHeight="1" spans="1:6">
-      <c r="A21" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" ht="100" customHeight="1" spans="1:7">
+      <c r="A21" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="C21" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="E21" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" ht="100" customHeight="1" spans="1:6">
-      <c r="A22" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" ht="100" customHeight="1" spans="1:7">
+      <c r="A22" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" ht="136" customHeight="1" spans="1:7">
-      <c r="A23" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" ht="136" customHeight="1" spans="1:8">
+      <c r="A23" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="C23" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="E23" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>111</v>
+      <c r="G23" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
